--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.031021-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.031021-2.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2375,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3287,12 +3287,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4883,12 +4883,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5149,12 +5149,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5909,12 +5909,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6213,12 +6213,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6745,12 +6745,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7049,12 +7049,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8227,12 +8227,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8721,12 +8721,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9785,12 +9785,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10887,12 +10887,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10925,12 +10925,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11039,12 +11039,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11651,12 +11651,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12069,12 +12069,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12487,12 +12487,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12865,12 +12865,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13017,12 +13017,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13359,12 +13359,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13397,12 +13397,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13473,12 +13473,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13853,12 +13853,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13891,12 +13891,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14005,12 +14005,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14043,12 +14043,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14119,12 +14119,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14233,12 +14233,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14493,12 +14493,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14607,12 +14607,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14721,12 +14721,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14835,12 +14835,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14911,12 +14911,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15063,12 +15063,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15561,12 +15561,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15903,12 +15903,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15979,12 +15979,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16055,12 +16055,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16131,12 +16131,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16207,12 +16207,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16245,12 +16245,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16321,12 +16321,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16435,12 +16435,12 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16549,12 +16549,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16663,12 +16663,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16701,12 +16701,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17119,12 +17119,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17575,12 +17575,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17651,12 +17651,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17727,12 +17727,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18145,12 +18145,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
